--- a/3/kattmänniskor.xlsx
+++ b/3/kattmänniskor.xlsx
@@ -424,32 +424,32 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Namn</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Ålder</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Epost</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Mobil</t>
+          <t>Mobile</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Djurnamn</t>
+          <t>Pet Name</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Ras</t>
+          <t>Breed</t>
         </is>
       </c>
     </row>
@@ -1614,7 +1614,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Medelålder:</t>
+          <t>Average age:</t>
         </is>
       </c>
       <c r="B48">
@@ -1625,7 +1625,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Medianålder:</t>
+          <t>Median age:</t>
         </is>
       </c>
       <c r="B49">
@@ -1636,7 +1636,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Yngst:</t>
+          <t>Youngest:</t>
         </is>
       </c>
       <c r="B50">
@@ -1647,7 +1647,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Äldst:</t>
+          <t>Oldest:</t>
         </is>
       </c>
       <c r="B51">

--- a/3/kattmänniskor.xlsx
+++ b/3/kattmänniskor.xlsx
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
